--- a/Python files and database/try.xlsx
+++ b/Python files and database/try.xlsx
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>3.40497899055481</v>
+        <v>2.063522338867188</v>
       </c>
       <c r="C2" t="n">
-        <v>30.98565864562988</v>
+        <v>32.34263610839844</v>
       </c>
       <c r="D2" t="n">
-        <v>3.347070693969727</v>
+        <v>2.983330011367798</v>
       </c>
       <c r="E2" t="n">
-        <v>66.89437866210938</v>
+        <v>66.99868774414062</v>
       </c>
       <c r="F2" t="n">
-        <v>330.1517028808594</v>
+        <v>263.3482055664062</v>
       </c>
       <c r="G2" t="n">
-        <v>2.926356554031372</v>
+        <v>1.820589542388916</v>
       </c>
       <c r="H2" t="n">
-        <v>19.21109580993652</v>
+        <v>22.61691856384277</v>
       </c>
       <c r="I2" t="n">
-        <v>7.060266971588135</v>
+        <v>7.055114269256592</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01480456441640854</v>
+        <v>-0.04872035980224609</v>
       </c>
       <c r="K2" t="n">
-        <v>59.85610198974609</v>
+        <v>63.40982437133789</v>
       </c>
       <c r="L2" t="n">
-        <v>98.37789154052734</v>
+        <v>101.9934310913086</v>
       </c>
       <c r="M2" t="n">
-        <v>16.76102256774902</v>
+        <v>18.03066825866699</v>
       </c>
       <c r="N2" t="n">
-        <v>3752.50439453125</v>
+        <v>3857.712646484375</v>
       </c>
       <c r="O2" t="n">
-        <v>2.107507228851318</v>
+        <v>1.94339644908905</v>
       </c>
     </row>
   </sheetData>

--- a/Python files and database/try.xlsx
+++ b/Python files and database/try.xlsx
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2.063522338867188</v>
+        <v>3.294344902038574</v>
       </c>
       <c r="C2" t="n">
-        <v>32.34263610839844</v>
+        <v>29.64429092407227</v>
       </c>
       <c r="D2" t="n">
-        <v>2.983330011367798</v>
+        <v>3.269644975662231</v>
       </c>
       <c r="E2" t="n">
-        <v>66.99868774414062</v>
+        <v>65.25657653808594</v>
       </c>
       <c r="F2" t="n">
-        <v>263.3482055664062</v>
+        <v>355.9937133789062</v>
       </c>
       <c r="G2" t="n">
-        <v>1.820589542388916</v>
+        <v>2.901945829391479</v>
       </c>
       <c r="H2" t="n">
-        <v>22.61691856384277</v>
+        <v>21.71899032592773</v>
       </c>
       <c r="I2" t="n">
-        <v>7.055114269256592</v>
+        <v>7.040362358093262</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.04872035980224609</v>
+        <v>0.05301868915557861</v>
       </c>
       <c r="K2" t="n">
-        <v>63.40982437133789</v>
+        <v>66.57601928710938</v>
       </c>
       <c r="L2" t="n">
-        <v>101.9934310913086</v>
+        <v>94.34396362304688</v>
       </c>
       <c r="M2" t="n">
-        <v>18.03066825866699</v>
+        <v>18.92698097229004</v>
       </c>
       <c r="N2" t="n">
-        <v>3857.712646484375</v>
+        <v>3775.739501953125</v>
       </c>
       <c r="O2" t="n">
-        <v>1.94339644908905</v>
+        <v>2.168662548065186</v>
       </c>
     </row>
   </sheetData>
